--- a/5.3.9_condensed_plan.xlsx
+++ b/5.3.9_condensed_plan.xlsx
@@ -1067,33 +1067,30 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AC13487D6E7D924AAD71A71B9A1F19E1" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="478bd6c1e327a94636a2b7ec0e0d880a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2fc49ab3-3490-46ec-8c6b-9c72befa57bf" xmlns:ns4="d6f3f227-4d42-4666-be73-1183176289d1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e8a9cba8a4f34733000f3bf69e615fe6" ns3:_="" ns4:_="">
-    <xsd:import namespace="2fc49ab3-3490-46ec-8c6b-9c72befa57bf"/>
-    <xsd:import namespace="d6f3f227-4d42-4666-be73-1183176289d1"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B3416DCB34DD7C4B92E65D12CB7FCD38" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bac8be2826a85e5a9dd452e9d6c31841">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="79cd7128-7692-472f-9aff-5e5a6b9f80d3" xmlns:ns3="4c813fe8-1347-4959-8219-8a1b0e95da11" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bef6fd18dd0aaa5b9dabdafd5fa7b70b" ns2:_="" ns3:_="">
+    <xsd:import namespace="79cd7128-7692-472f-9aff-5e5a6b9f80d3"/>
+    <xsd:import namespace="4c813fe8-1347-4959-8219-8a1b0e95da11"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns3:MigrationWizId" minOccurs="0"/>
-                <xsd:element ref="ns3:MigrationWizIdPermissions" minOccurs="0"/>
-                <xsd:element ref="ns3:MigrationWizIdVersion" minOccurs="0"/>
-                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns2:OX2_Project_Id" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceSystemTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
@@ -1102,91 +1099,15 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="2fc49ab3-3490-46ec-8c6b-9c72befa57bf" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="79cd7128-7692-472f-9aff-5e5a6b9f80d3" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MigrationWizId" ma:index="8" nillable="true" ma:displayName="MigrationWizId" ma:internalName="MigrationWizId">
+    <xsd:element name="OX2_Project_Id" ma:index="8" nillable="true" ma:displayName="Project Number" ma:internalName="OX2_Project_Id">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MigrationWizIdPermissions" ma:index="9" nillable="true" ma:displayName="MigrationWizIdPermissions" ma:internalName="MigrationWizIdPermissions">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MigrationWizIdVersion" ma:index="10" nillable="true" ma:displayName="MigrationWizIdVersion" ma:internalName="MigrationWizIdVersion">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="_activity" ma:index="11" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="13" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="14" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="15" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSystemTags" ma:index="22" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="23" nillable="true" ma:displayName="MediaServiceDateTaken" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="24" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d6f3f227-4d42-4666-be73-1183176289d1" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="9" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -1205,16 +1126,85 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="10" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="SharingHintHash" ma:index="21" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{6ec4a4bc-2685-4191-8e5b-741c43db70a3}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="79cd7128-7692-472f-9aff-5e5a6b9f80d3">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4c813fe8-1347-4959-8219-8a1b0e95da11" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="13" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="d1a101f0-c96a-436f-92e5-2eae4ddf4f0a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="19" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="20" nillable="true" ma:displayName="MediaServiceDateTaken" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="22" nillable="true" ma:displayName="Location" ma:description="" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="23" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1329,31 +1319,17 @@
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <MigrationWizIdPermissions xmlns="2fc49ab3-3490-46ec-8c6b-9c72befa57bf" xsi:nil="true"/>
-    <MigrationWizId xmlns="2fc49ab3-3490-46ec-8c6b-9c72befa57bf" xsi:nil="true"/>
-    <MigrationWizIdVersion xmlns="2fc49ab3-3490-46ec-8c6b-9c72befa57bf" xsi:nil="true"/>
-    <_activity xmlns="2fc49ab3-3490-46ec-8c6b-9c72befa57bf" xsi:nil="true"/>
+    <TaxCatchAll xmlns="79cd7128-7692-472f-9aff-5e5a6b9f80d3" xsi:nil="true"/>
+    <OX2_Project_Id xmlns="79cd7128-7692-472f-9aff-5e5a6b9f80d3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4c813fe8-1347-4959-8219-8a1b0e95da11">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{610097C5-E8C9-4E6E-8B32-336BC105EA81}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2fc49ab3-3490-46ec-8c6b-9c72befa57bf"/>
-    <ds:schemaRef ds:uri="d6f3f227-4d42-4666-be73-1183176289d1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CB22FD0-798F-47CC-8379-6CE5CD723E50}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
